--- a/tools/dora/RTS/RTS-DORA-ICTservices-supporting.xlsx
+++ b/tools/dora/RTS/RTS-DORA-ICTservices-supporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imanabshirali/Desktop/stage MAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A7F18-E40A-3948-A17C-0AC5E818A781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD2DEC8-5E7C-1643-BDE0-BCF04CF8CF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{07E11555-D7C4-E248-B1CA-88155D1FBDDE}"/>
   </bookViews>
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B35FE3-E2E1-6544-BD94-781CE4F49196}">
   <dimension ref="A1:G695"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1557,8 +1557,7 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="29" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="29" t="s">
@@ -1733,8 +1732,7 @@
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1759,8 +1757,7 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -2012,8 +2009,7 @@
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -2128,8 +2124,7 @@
       <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -2319,8 +2314,7 @@
       <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="29" t="s">
+      <c r="C54" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -2566,8 +2560,7 @@
       <c r="B70" s="2">
         <v>1</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="6" t="s">
@@ -2609,8 +2602,7 @@
       <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="29" t="s">
+      <c r="C73" s="29" t="s">
         <v>15</v>
       </c>
       <c r="E73" s="6" t="s">
@@ -2862,8 +2854,7 @@
       <c r="B90" s="2">
         <v>1</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="6" t="s">
@@ -3010,8 +3001,7 @@
       <c r="B100" s="2">
         <v>1</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="15" t="s">
+      <c r="C100" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E100" s="6" t="s">
@@ -3094,8 +3084,7 @@
       <c r="B106" s="2">
         <v>1</v>
       </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="6" t="s">
